--- a/20171124周报/技术支撑服务人员周报日报-20171124.xlsx
+++ b/20171124周报/技术支撑服务人员周报日报-20171124.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13056"/>
+    <workbookView windowWidth="24180" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>项目名称</t>
   </si>
@@ -89,6 +89,14 @@
   </si>
   <si>
     <t>何娟</t>
+  </si>
+  <si>
+    <t>配合咪咕汇票选第二阶段联调
+跟踪线上问题并修改，配合市场部提取数据
+修改集星卡活动访问接口，只能通过活动页访问记录</t>
+  </si>
+  <si>
+    <t>代码</t>
   </si>
   <si>
     <t>袁常鑫</t>
@@ -100,8 +108,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,7 +127,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -121,68 +134,178 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,12 +314,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -230,18 +533,266 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -289,29 +840,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -598,369 +1184,378 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.44140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.77734375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.8833333333333" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.4416666666667" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.6666666666667" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.8833333333333" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.6666666666667" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.1083333333333" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.4416666666667" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.775" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="17.25" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" ht="17.25" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" ht="17.25" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" ht="17.25" spans="1:8">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" ht="17.25" spans="1:8">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" ht="17.25" spans="1:8">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" ht="17.25" spans="1:8">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" ht="17.25" spans="1:8">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" ht="17.25" spans="1:8">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" ht="17.25" spans="1:8">
+      <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" ht="17.25" spans="1:8">
+      <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" ht="17.25" spans="1:8">
+      <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="14"/>
-    </row>
-    <row r="14" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" ht="51.75" spans="1:8">
+      <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="E14" s="6">
+        <v>20171120</v>
+      </c>
+      <c r="F14" s="6">
+        <v>20171124</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" ht="17.25" spans="1:8">
+      <c r="A15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="17" spans="8:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H17" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="17" ht="34.5" customHeight="1" spans="8:8">
+      <c r="H17" s="19"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/20171124周报/技术支撑服务人员周报日报-20171124.xlsx
+++ b/20171124周报/技术支撑服务人员周报日报-20171124.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13050"/>
+    <workbookView windowWidth="24135" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>项目名称</t>
   </si>
@@ -68,6 +68,13 @@
   </si>
   <si>
     <t>陈毅昌</t>
+  </si>
+  <si>
+    <t>1.差异化运营开发与联调
+2.banner曝光位修改</t>
+  </si>
+  <si>
+    <t>代码</t>
   </si>
   <si>
     <t>王琪</t>
@@ -94,9 +101,6 @@
     <t>配合咪咕汇票选第二阶段联调
 跟踪线上问题并修改，配合市场部提取数据
 修改集星卡活动访问接口，只能通过活动页访问记录</t>
-  </si>
-  <si>
-    <t>代码</t>
   </si>
   <si>
     <t>袁常鑫</t>
@@ -111,8 +115,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -156,6 +160,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -171,6 +183,58 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -187,7 +251,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,50 +265,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -269,40 +289,24 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -320,19 +324,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,157 +492,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,17 +538,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,13 +577,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,27 +627,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,10 +641,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -649,143 +653,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -804,9 +808,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -830,9 +831,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1193,7 +1191,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1248,10 +1246,14 @@
       <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
+      <c r="E2" s="6">
+        <v>20171120</v>
+      </c>
+      <c r="F2" s="6">
+        <v>20171124</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" ht="17.25" spans="1:8">
       <c r="A3" s="6" t="s">
@@ -1266,10 +1268,14 @@
       <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
+      <c r="E3" s="6">
+        <v>20171120</v>
+      </c>
+      <c r="F3" s="6">
+        <v>20171124</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" ht="17.25" spans="1:8">
       <c r="A4" s="6" t="s">
@@ -1284,10 +1290,14 @@
       <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
+      <c r="E4" s="6">
+        <v>20171120</v>
+      </c>
+      <c r="F4" s="6">
+        <v>20171124</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" ht="17.25" spans="1:8">
       <c r="A5" s="6" t="s">
@@ -1302,10 +1312,14 @@
       <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10"/>
+      <c r="E5" s="6">
+        <v>20171120</v>
+      </c>
+      <c r="F5" s="6">
+        <v>20171124</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" ht="17.25" spans="1:8">
       <c r="A6" s="6" t="s">
@@ -1320,12 +1334,16 @@
       <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" ht="17.25" spans="1:8">
+      <c r="E6" s="6">
+        <v>20171120</v>
+      </c>
+      <c r="F6" s="6">
+        <v>20171124</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" ht="34.5" spans="1:8">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -1338,10 +1356,18 @@
       <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="10"/>
+      <c r="E7" s="6">
+        <v>20171120</v>
+      </c>
+      <c r="F7" s="6">
+        <v>20171124</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" ht="17.25" spans="1:8">
       <c r="A8" s="7" t="s">
@@ -1351,15 +1377,19 @@
         <v>9</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
+      <c r="E8" s="6">
+        <v>20171120</v>
+      </c>
+      <c r="F8" s="6">
+        <v>20171124</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" ht="17.25" spans="1:8">
       <c r="A9" s="7" t="s">
@@ -1368,16 +1398,20 @@
       <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>18</v>
+      <c r="C9" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="10"/>
+      <c r="E9" s="6">
+        <v>20171120</v>
+      </c>
+      <c r="F9" s="6">
+        <v>20171124</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" ht="17.25" spans="1:8">
       <c r="A10" s="6" t="s">
@@ -1387,15 +1421,19 @@
         <v>9</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="10"/>
+      <c r="E10" s="6">
+        <v>20171120</v>
+      </c>
+      <c r="F10" s="6">
+        <v>20171124</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" ht="17.25" spans="1:8">
       <c r="A11" s="6" t="s">
@@ -1405,15 +1443,19 @@
         <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="10"/>
+      <c r="E11" s="6">
+        <v>20171120</v>
+      </c>
+      <c r="F11" s="6">
+        <v>20171124</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" ht="17.25" spans="1:8">
       <c r="A12" s="6" t="s">
@@ -1422,16 +1464,20 @@
       <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>21</v>
+      <c r="C12" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="10"/>
+      <c r="E12" s="6">
+        <v>20171120</v>
+      </c>
+      <c r="F12" s="6">
+        <v>20171124</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" ht="17.25" spans="1:8">
       <c r="A13" s="6" t="s">
@@ -1441,15 +1487,19 @@
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="16"/>
+      <c r="E13" s="6">
+        <v>20171120</v>
+      </c>
+      <c r="F13" s="6">
+        <v>20171124</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" ht="51.75" spans="1:8">
       <c r="A14" s="6" t="s">
@@ -1459,7 +1509,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>11</v>
@@ -1470,11 +1520,11 @@
       <c r="F14" s="6">
         <v>20171124</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>24</v>
+      <c r="G14" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="17.25" spans="1:8">
@@ -1485,18 +1535,22 @@
         <v>9</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="10"/>
+      <c r="E15" s="6">
+        <v>20171120</v>
+      </c>
+      <c r="F15" s="6">
+        <v>20171124</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="9"/>
     </row>
     <row r="17" ht="34.5" customHeight="1" spans="8:8">
-      <c r="H17" s="19"/>
+      <c r="H17" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1518,7 +1572,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/20171124周报/技术支撑服务人员周报日报-20171124.xlsx
+++ b/20171124周报/技术支撑服务人员周报日报-20171124.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24135" windowHeight="13050"/>
+    <workbookView windowWidth="24180" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>项目名称</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>张文韬</t>
+  </si>
+  <si>
+    <t>1.根据客户端UI,建立新的模板与模板解析器</t>
   </si>
   <si>
     <t>李春荣</t>
@@ -115,9 +118,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -160,23 +163,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,6 +201,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -198,107 +254,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,31 +327,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,145 +441,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,15 +541,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -562,17 +556,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,9 +597,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,42 +638,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -653,133 +656,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
@@ -1191,7 +1194,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1454,8 +1457,12 @@
       <c r="F11" s="6">
         <v>20171124</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="9"/>
+      <c r="G11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" ht="17.25" spans="1:8">
       <c r="A12" s="6" t="s">
@@ -1465,7 +1472,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>11</v>
@@ -1487,7 +1494,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>11</v>
@@ -1509,7 +1516,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>11</v>
@@ -1521,7 +1528,7 @@
         <v>20171124</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>18</v>
@@ -1535,7 +1542,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>11</v>
@@ -1572,7 +1579,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/20171124周报/技术支撑服务人员周报日报-20171124.xlsx
+++ b/20171124周报/技术支撑服务人员周报日报-20171124.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24180" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>项目名称</t>
   </si>
@@ -98,31 +98,39 @@
     <t>曾昌林</t>
   </si>
   <si>
+    <t>配合咪咕汇票选第二阶段联调
+咪咕币领取限制</t>
+  </si>
+  <si>
     <t>何娟</t>
-  </si>
-  <si>
-    <t>袁常鑫</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
   </si>
   <si>
     <t>配合咪咕汇票选第二阶段联调
 跟踪线上问题并修改，配合市场部提取数据
 修改集星卡活动访问接口，只能通过活动页访问记录</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>配合咪咕汇票选第二阶段联调
-咪咕币领取限制</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁常鑫</t>
+  </si>
+  <si>
+    <t>1.将数据库演唱会试看时长小于0的全部改为120
+2.将数据库演唱会试看时长字段默认值设置为120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,25 +171,156 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,12 +329,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -229,18 +554,266 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -282,19 +855,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -585,439 +1199,442 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="17.25" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="6">
         <v>20171120</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="6">
         <v>20171124</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" ht="17.25" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="6">
         <v>20171120</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="6">
         <v>20171124</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" ht="17.25" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="6">
         <v>20171120</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="6">
         <v>20171124</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" ht="17.25" spans="1:8">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="6">
         <v>20171120</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="6">
         <v>20171124</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" ht="17.25" spans="1:8">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="6">
         <v>20171120</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="6">
         <v>20171124</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" ht="34.5" spans="1:8">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="6">
         <v>20171120</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="6">
         <v>20171124</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+    <row r="8" ht="17.25" spans="1:8">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="6">
         <v>20171120</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="6">
         <v>20171124</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" ht="17.25" spans="1:8">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="6">
         <v>20171120</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="6">
         <v>20171124</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="G9" s="12"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" ht="17.25" spans="1:8">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="6">
         <v>20171120</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="6">
         <v>20171124</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
+      <c r="G10" s="13"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" ht="17.25" spans="1:8">
+      <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="6">
         <v>20171120</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="6">
         <v>20171124</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
+    <row r="12" ht="17.25" spans="1:8">
+      <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="6">
         <v>20171120</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="6">
         <v>20171124</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
+      <c r="G12" s="12"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" ht="34.5" spans="1:8">
+      <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="6">
         <v>20171120</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="6">
         <v>20171124</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" ht="51.75" spans="1:8">
+      <c r="A14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6">
+        <v>20171120</v>
+      </c>
+      <c r="F14" s="6">
+        <v>20171124</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" ht="34.5" spans="1:8">
+      <c r="A15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="6">
+        <v>20171120</v>
+      </c>
+      <c r="F15" s="6">
+        <v>20171124</v>
+      </c>
+      <c r="G15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="4">
-        <v>20171120</v>
-      </c>
-      <c r="F14" s="4">
-        <v>20171124</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="4">
-        <v>20171120</v>
-      </c>
-      <c r="F15" s="4">
-        <v>20171124</v>
-      </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="17" spans="8:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H17" s="15"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="17" ht="34.5" customHeight="1" spans="8:8">
+      <c r="H17" s="17"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="17"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="17"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="17"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="17"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="17"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="17"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="17"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="17"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="17"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/20171124周报/技术支撑服务人员周报日报-20171124.xlsx
+++ b/20171124周报/技术支撑服务人员周报日报-20171124.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\weekReport\20171124周报\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="34">
   <si>
     <t>项目名称</t>
   </si>
@@ -122,13 +127,19 @@
   <si>
     <t>1.贡献榜功能与客户端联调及方案调整上线
 2.播控平台互动数据、运营弹幕发送功能修正更新</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.客户端联调修改模板
+2.学习新技术
+</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -307,6 +318,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -354,7 +368,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -387,9 +401,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -422,6 +453,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -601,7 +649,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -875,7 +923,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
@@ -894,8 +942,12 @@
       <c r="F12" s="4">
         <v>20171124</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="7"/>
+      <c r="G12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
@@ -977,7 +1029,7 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/20171124周报/技术支撑服务人员周报日报-20171124.xlsx
+++ b/20171124周报/技术支撑服务人员周报日报-20171124.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\weekReport\20171124周报\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>项目名称</t>
   </si>
@@ -88,6 +83,10 @@
     <t>罗健</t>
   </si>
   <si>
+    <t>1.贡献榜功能与客户端联调及方案调整上线
+2.播控平台互动数据、运营弹幕发送功能修正更新</t>
+  </si>
+  <si>
     <t>陈平</t>
   </si>
   <si>
@@ -98,6 +97,11 @@
   </si>
   <si>
     <t>李春荣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.客户端联调修改模板
+2.学习新技术
+</t>
   </si>
   <si>
     <t>曾昌林</t>
@@ -118,29 +122,25 @@
     <t>袁常鑫</t>
   </si>
   <si>
-    <t>1.将数据库演唱会试看时长小于0的全部改为120
-2.将数据库演唱会试看时长字段默认值设置为120</t>
+    <t>1.配合客户端确认演唱会试看业务的需求修改
+2.将数据库演唱会试看时长小于0的全部改为120
+3.将数据库演唱会试看时长字段默认值设置为120</t>
   </si>
   <si>
     <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
-  </si>
-  <si>
-    <t>1.贡献榜功能与客户端联调及方案调整上线
-2.播控平台互动数据、运营弹幕发送功能修正更新</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.客户端联调修改模板
-2.学习新技术
-</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,25 +181,156 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,12 +339,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -247,18 +564,266 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -297,29 +862,70 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -368,7 +974,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -401,26 +1007,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -453,23 +1042,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -640,449 +1212,452 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="17.25" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="6">
         <v>20171120</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="6">
         <v>20171124</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" ht="17.25" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="6">
         <v>20171120</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="6">
         <v>20171124</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" ht="17.25" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="6">
         <v>20171120</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="6">
         <v>20171124</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" ht="17.25" spans="1:8">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="6">
         <v>20171120</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="6">
         <v>20171124</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" ht="17.25" spans="1:8">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="6">
         <v>20171120</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="6">
         <v>20171124</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" ht="34.5" spans="1:8">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="6">
         <v>20171120</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="6">
         <v>20171124</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+    <row r="8" ht="17.25" spans="1:8">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="6">
         <v>20171120</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="6">
         <v>20171124</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" ht="34.5" spans="1:8">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="6">
         <v>20171120</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="6">
         <v>20171124</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" ht="17.25" spans="1:8">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6">
+        <v>20171120</v>
+      </c>
+      <c r="F10" s="6">
+        <v>20171124</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" ht="17.25" spans="1:8">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6">
+        <v>20171120</v>
+      </c>
+      <c r="F11" s="6">
+        <v>20171124</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" ht="51.75" spans="1:8">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6">
+        <v>20171120</v>
+      </c>
+      <c r="F12" s="6">
+        <v>20171124</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" ht="34.5" spans="1:8">
+      <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="6">
+        <v>20171120</v>
+      </c>
+      <c r="F13" s="6">
+        <v>20171124</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" ht="51.75" spans="1:8">
+      <c r="A14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6">
+        <v>20171120</v>
+      </c>
+      <c r="F14" s="6">
+        <v>20171124</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" ht="51.75" spans="1:8">
+      <c r="A15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="6">
+        <v>20171120</v>
+      </c>
+      <c r="F15" s="6">
+        <v>20171124</v>
+      </c>
+      <c r="G15" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H15" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="4">
-        <v>20171120</v>
-      </c>
-      <c r="F10" s="4">
-        <v>20171124</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="4">
-        <v>20171120</v>
-      </c>
-      <c r="F11" s="4">
-        <v>20171124</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="4">
-        <v>20171120</v>
-      </c>
-      <c r="F12" s="4">
-        <v>20171124</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="4">
-        <v>20171120</v>
-      </c>
-      <c r="F13" s="4">
-        <v>20171124</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="4">
-        <v>20171120</v>
-      </c>
-      <c r="F14" s="4">
-        <v>20171124</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="4">
-        <v>20171120</v>
-      </c>
-      <c r="F15" s="4">
-        <v>20171124</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="17" spans="8:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H17" s="15"/>
+    <row r="17" ht="34.5" customHeight="1" spans="8:8">
+      <c r="H17" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="17"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="17"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="17"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="17"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="17"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="17"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="17"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="17"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="17"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/20171124周报/技术支撑服务人员周报日报-20171124.xlsx
+++ b/20171124周报/技术支撑服务人员周报日报-20171124.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="23385" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>项目名称</t>
   </si>
@@ -64,7 +64,16 @@
     <t>陆晨曦</t>
   </si>
   <si>
+    <t>改变索引文件更新方式以及日志记录方式</t>
+  </si>
+  <si>
+    <t>代码</t>
+  </si>
+  <si>
     <t>赵小平</t>
+  </si>
+  <si>
+    <t>集星卡活动分享、页面访问验证功能开发</t>
   </si>
   <si>
     <t>陈毅昌</t>
@@ -72,9 +81,6 @@
   <si>
     <t>1.差异化运营开发与联调
 2.banner曝光位修改</t>
-  </si>
-  <si>
-    <t>代码</t>
   </si>
   <si>
     <t>王琪</t>
@@ -125,6 +131,12 @@
     <t>1.配合客户端确认演唱会试看业务的需求修改
 2.将数据库演唱会试看时长小于0的全部改为120
 3.将数据库演唱会试看时长字段默认值设置为120</t>
+  </si>
+  <si>
+    <t>贾洋</t>
+  </si>
+  <si>
+    <t>重庆活动bug修复，集星卡活动交接，集星卡bug修复</t>
   </si>
   <si>
     <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
@@ -135,10 +147,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -182,16 +194,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -202,15 +222,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,44 +321,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -278,59 +337,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,13 +357,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,169 +525,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,67 +571,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,16 +612,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -680,19 +686,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -701,115 +707,115 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1221,7 +1227,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1348,8 +1354,12 @@
       <c r="F5" s="6">
         <v>20171124</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
+      <c r="G5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" ht="17.25" spans="1:8">
       <c r="A6" s="6" t="s">
@@ -1359,7 +1369,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>11</v>
@@ -1370,8 +1380,12 @@
       <c r="F6" s="6">
         <v>20171124</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
+      <c r="G6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" ht="34.5" spans="1:8">
       <c r="A7" s="6" t="s">
@@ -1381,7 +1395,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>11</v>
@@ -1393,10 +1407,10 @@
         <v>20171124</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="17.25" spans="1:8">
@@ -1407,7 +1421,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>11</v>
@@ -1429,7 +1443,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>11</v>
@@ -1441,10 +1455,10 @@
         <v>20171124</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="1:8">
@@ -1455,7 +1469,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>11</v>
@@ -1477,7 +1491,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>11</v>
@@ -1489,10 +1503,10 @@
         <v>20171124</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="51.75" spans="1:8">
@@ -1503,7 +1517,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>11</v>
@@ -1515,10 +1529,10 @@
         <v>20171124</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="34.5" spans="1:8">
@@ -1529,7 +1543,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>11</v>
@@ -1541,7 +1555,7 @@
         <v>20171124</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H13" s="15"/>
     </row>
@@ -1553,7 +1567,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>11</v>
@@ -1565,10 +1579,10 @@
         <v>20171124</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="51.75" spans="1:8">
@@ -1579,7 +1593,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>11</v>
@@ -1591,10 +1605,33 @@
         <v>20171124</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" ht="17.25" spans="2:8">
+      <c r="B16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="6">
+        <v>20171120</v>
+      </c>
+      <c r="F16" s="6">
+        <v>20171124</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="34.5" customHeight="1" spans="8:8">
@@ -1620,7 +1657,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/20171124周报/技术支撑服务人员周报日报-20171124.xlsx
+++ b/20171124周报/技术支撑服务人员周报日报-20171124.xlsx
@@ -147,9 +147,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -193,6 +193,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -201,7 +213,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,8 +257,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,116 +335,12 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -357,31 +357,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,37 +519,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,102 +532,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,48 +571,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -630,10 +588,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -668,16 +633,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -686,136 +686,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">

--- a/20171124周报/技术支撑服务人员周报日报-20171124.xlsx
+++ b/20171124周报/技术支撑服务人员周报日报-20171124.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\comm\week\weekReport\20171124周报\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23385" windowHeight="13050"/>
+    <workbookView windowWidth="23895" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>项目名称</t>
   </si>
@@ -99,6 +94,10 @@
   </si>
   <si>
     <t>陈平</t>
+  </si>
+  <si>
+    <t>1.修改趣玩乐模版中的actionurl为线上环境连接
+2.处理线上bug。热门活动问题和banner问题</t>
   </si>
   <si>
     <t>张文韬</t>
@@ -144,19 +143,27 @@
     <t>重庆活动bug修复，集星卡活动交接，集星卡bug修复</t>
   </si>
   <si>
+    <t>胡阳</t>
+  </si>
+  <si>
+    <t>1. 学习docker容器的相关技术
+2. 了解cloud相关技术</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
-  </si>
-  <si>
-    <t>1.修改趣玩乐模版中的actionurl为线上环境连接
-2.处理线上bug。热门活动问题和banner问题</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,32 +204,156 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,12 +362,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -270,18 +587,266 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -323,29 +888,64 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -632,486 +1232,505 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="17.25" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="6">
         <v>20171120</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="6">
         <v>20171124</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" ht="17.25" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="6">
         <v>20171120</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="6">
         <v>20171124</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" ht="17.25" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="6">
         <v>20171120</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="6">
         <v>20171124</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" ht="17.25" spans="1:8">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="6">
         <v>20171120</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="6">
         <v>20171124</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="17.25" spans="1:8">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="6">
         <v>20171120</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="6">
         <v>20171124</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+    <row r="7" ht="34.5" spans="1:8">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="6">
         <v>20171120</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="6">
         <v>20171124</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+    <row r="8" ht="17.25" spans="1:8">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="6">
         <v>20171120</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="6">
         <v>20171124</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" ht="34.5" spans="1:8">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="6">
         <v>20171120</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="6">
         <v>20171124</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+    <row r="10" ht="34.5" spans="1:8">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="6">
         <v>20171120</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="6">
         <v>20171124</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="17.25" spans="1:8">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6">
+        <v>20171120</v>
+      </c>
+      <c r="F11" s="6">
+        <v>20171124</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="51.75" spans="1:8">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6">
+        <v>20171120</v>
+      </c>
+      <c r="F12" s="6">
+        <v>20171124</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="34.5" spans="1:8">
+      <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="6">
+        <v>20171120</v>
+      </c>
+      <c r="F13" s="6">
+        <v>20171124</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" ht="51.75" spans="1:8">
+      <c r="A14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6">
+        <v>20171120</v>
+      </c>
+      <c r="F14" s="6">
+        <v>20171124</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" ht="51.75" spans="1:8">
+      <c r="A15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="6">
+        <v>20171120</v>
+      </c>
+      <c r="F15" s="6">
+        <v>20171124</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" ht="17.25" spans="2:8">
+      <c r="B16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="6">
+        <v>20171120</v>
+      </c>
+      <c r="F16" s="6">
+        <v>20171124</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" ht="34.5" customHeight="1" spans="2:8">
+      <c r="B17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="D17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E17" s="6">
         <v>20171120</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F17" s="6">
         <v>20171124</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="4">
-        <v>20171120</v>
-      </c>
-      <c r="F12" s="4">
-        <v>20171124</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="4">
-        <v>20171120</v>
-      </c>
-      <c r="F13" s="4">
-        <v>20171124</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="4">
-        <v>20171120</v>
-      </c>
-      <c r="F14" s="4">
-        <v>20171124</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="4">
-        <v>20171120</v>
-      </c>
-      <c r="F15" s="4">
-        <v>20171124</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="4">
-        <v>20171120</v>
-      </c>
-      <c r="F16" s="4">
-        <v>20171124</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="8:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H17" s="16"/>
+      <c r="G17" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="18"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="18"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="18"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="18"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="18"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="18"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="18"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="18"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="18"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="18"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/20171124周报/技术支撑服务人员周报日报-20171124.xlsx
+++ b/20171124周报/技术支撑服务人员周报日报-20171124.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350"/>
+    <workbookView windowWidth="24180" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t>项目名称</t>
   </si>
@@ -58,6 +58,12 @@
     <t>杜智恒</t>
   </si>
   <si>
+    <t>1,搭建docker环境                                                          2,在网关系统增加 timestamp效验</t>
+  </si>
+  <si>
+    <t>代码</t>
+  </si>
+  <si>
     <t>凌河源</t>
   </si>
   <si>
@@ -65,9 +71,6 @@
   </si>
   <si>
     <t>改变索引文件更新方式以及日志记录方式</t>
-  </si>
-  <si>
-    <t>代码</t>
   </si>
   <si>
     <t>赵小平</t>
@@ -160,8 +163,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -205,14 +208,136 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,134 +351,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -368,187 +371,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,39 +587,35 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,20 +637,39 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,31 +682,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -703,136 +700,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1241,7 +1238,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1305,7 +1302,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" ht="17.25" spans="1:8">
+    <row r="3" ht="34.5" spans="1:8">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -1324,8 +1321,12 @@
       <c r="F3" s="6">
         <v>20171124</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
+      <c r="G3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" ht="17.25" spans="1:8">
       <c r="A4" s="6" t="s">
@@ -1335,7 +1336,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>11</v>
@@ -1357,7 +1358,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>11</v>
@@ -1369,10 +1370,10 @@
         <v>20171124</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:8">
@@ -1383,7 +1384,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>11</v>
@@ -1395,10 +1396,10 @@
         <v>20171124</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" ht="34.5" spans="1:8">
@@ -1409,7 +1410,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>11</v>
@@ -1421,10 +1422,10 @@
         <v>20171124</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" ht="17.25" spans="1:8">
@@ -1435,7 +1436,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>11</v>
@@ -1457,7 +1458,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>11</v>
@@ -1469,10 +1470,10 @@
         <v>20171124</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" ht="34.5" spans="1:8">
@@ -1483,7 +1484,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>11</v>
@@ -1495,10 +1496,10 @@
         <v>20171124</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" ht="17.25" spans="1:8">
@@ -1509,7 +1510,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>11</v>
@@ -1521,10 +1522,10 @@
         <v>20171124</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" ht="51.75" spans="1:8">
@@ -1535,7 +1536,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>11</v>
@@ -1547,10 +1548,10 @@
         <v>20171124</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" ht="34.5" spans="1:8">
@@ -1561,7 +1562,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>11</v>
@@ -1573,7 +1574,7 @@
         <v>20171124</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H13" s="15"/>
     </row>
@@ -1585,7 +1586,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>11</v>
@@ -1597,10 +1598,10 @@
         <v>20171124</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" ht="51.75" spans="1:8">
@@ -1611,7 +1612,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>11</v>
@@ -1623,10 +1624,10 @@
         <v>20171124</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" ht="17.25" spans="2:8">
@@ -1634,7 +1635,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>11</v>
@@ -1646,10 +1647,10 @@
         <v>20171124</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" ht="34.5" customHeight="1" spans="2:8">
@@ -1657,7 +1658,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>11</v>
@@ -1669,7 +1670,7 @@
         <v>20171124</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H17" s="9"/>
     </row>
@@ -1693,7 +1694,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/20171124周报/技术支撑服务人员周报日报-20171124.xlsx
+++ b/20171124周报/技术支撑服务人员周报日报-20171124.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13056"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="44">
   <si>
     <t>项目名称</t>
   </si>
@@ -157,6 +157,10 @@
   </si>
   <si>
     <t>1趣玩乐大改版之后的修改</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -289,7 +293,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -322,9 +326,6 @@
     </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -644,23 +645,23 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.44140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.77734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -686,7 +687,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -708,7 +709,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -734,7 +735,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -756,7 +757,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -782,7 +783,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -808,7 +809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -834,7 +835,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
@@ -860,7 +861,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="52.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -886,7 +887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -912,7 +913,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -938,7 +939,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="52.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
@@ -964,7 +965,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
@@ -986,9 +987,11 @@
       <c r="G13" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.25">
+      <c r="H13" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -1011,10 +1014,10 @@
         <v>34</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>8</v>
       </c>
@@ -1033,14 +1036,14 @@
       <c r="F15" s="4">
         <v>20171124</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B16" s="5" t="s">
         <v>9</v>
       </c>
@@ -1056,14 +1059,14 @@
       <c r="F16" s="4">
         <v>20171124</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="5" t="s">
         <v>9</v>
       </c>
@@ -1079,7 +1082,7 @@
       <c r="F17" s="4">
         <v>20171124</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="13" t="s">
         <v>40</v>
       </c>
       <c r="H17" s="7"/>
@@ -1099,42 +1102,42 @@
       <selection sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="16"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="16"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="16"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="16"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="16"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="16"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="16"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="16"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="16"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/20171124周报/技术支撑服务人员周报日报-20171124.xlsx
+++ b/20171124周报/技术支撑服务人员周报日报-20171124.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="13050"/>
+    <workbookView windowWidth="24180" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>项目名称</t>
   </si>
@@ -55,13 +55,16 @@
     <t>北京烽火</t>
   </si>
   <si>
+    <t>场景电台功能开发</t>
+  </si>
+  <si>
+    <t>代码</t>
+  </si>
+  <si>
     <t>杜智恒</t>
   </si>
   <si>
     <t>1,搭建docker环境                                                          2,在网关系统增加 timestamp效验</t>
-  </si>
-  <si>
-    <t>代码</t>
   </si>
   <si>
     <t>凌河源</t>
@@ -87,6 +90,9 @@
   </si>
   <si>
     <t>王琪</t>
+  </si>
+  <si>
+    <t>1趣玩乐大改版之后的修改</t>
   </si>
   <si>
     <t>罗健</t>
@@ -154,21 +160,19 @@
   </si>
   <si>
     <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
-  </si>
-  <si>
-    <t>1趣玩乐大改版之后的修改</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,7 +184,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -188,54 +191,185 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,12 +378,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -283,18 +603,266 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -310,6 +878,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -327,25 +898,66 @@
     <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -636,514 +1248,519 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="17.25" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="6">
         <v>20171120</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="6">
         <v>20171124</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="G2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="34.5" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="6">
         <v>20171120</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="6">
         <v>20171124</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+    </row>
+    <row r="4" ht="17.25" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="6">
         <v>20171120</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="6">
         <v>20171124</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" ht="17.25" spans="1:8">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="6">
         <v>20171120</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="6">
         <v>20171124</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+      <c r="G5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" ht="17.25" spans="1:8">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="6">
         <v>20171120</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="6">
         <v>20171124</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+      <c r="G6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" ht="34.5" spans="1:8">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="6">
         <v>20171120</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="6">
         <v>20171124</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+      <c r="G7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" ht="17.25" spans="1:8">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="6">
         <v>20171120</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="6">
         <v>20171124</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" ht="34.5" spans="1:8">
+      <c r="A9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="6">
+        <v>20171120</v>
+      </c>
+      <c r="F9" s="6">
+        <v>20171124</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" ht="34.5" spans="1:8">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6">
+        <v>20171120</v>
+      </c>
+      <c r="F10" s="6">
+        <v>20171124</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" ht="17.25" spans="1:8">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6">
+        <v>20171120</v>
+      </c>
+      <c r="F11" s="6">
+        <v>20171124</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" ht="51.75" spans="1:8">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6">
+        <v>20171120</v>
+      </c>
+      <c r="F12" s="6">
+        <v>20171124</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" ht="34.5" spans="1:8">
+      <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="6">
+        <v>20171120</v>
+      </c>
+      <c r="F13" s="6">
+        <v>20171124</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" ht="51.75" spans="1:8">
+      <c r="A14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6">
+        <v>20171120</v>
+      </c>
+      <c r="F14" s="6">
+        <v>20171124</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" ht="51.75" spans="1:8">
+      <c r="A15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="6">
+        <v>20171120</v>
+      </c>
+      <c r="F15" s="6">
+        <v>20171124</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" ht="17.25" spans="2:8">
+      <c r="B16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="6">
+        <v>20171120</v>
+      </c>
+      <c r="F16" s="6">
+        <v>20171124</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" ht="34.5" customHeight="1" spans="2:8">
+      <c r="B17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="6">
+        <v>20171120</v>
+      </c>
+      <c r="F17" s="6">
+        <v>20171124</v>
+      </c>
+      <c r="G17" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="4">
-        <v>20171120</v>
-      </c>
-      <c r="F9" s="4">
-        <v>20171124</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="4">
-        <v>20171120</v>
-      </c>
-      <c r="F10" s="4">
-        <v>20171124</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="4">
-        <v>20171120</v>
-      </c>
-      <c r="F11" s="4">
-        <v>20171124</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="4">
-        <v>20171120</v>
-      </c>
-      <c r="F12" s="4">
-        <v>20171124</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="4">
-        <v>20171120</v>
-      </c>
-      <c r="F13" s="4">
-        <v>20171124</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="4">
-        <v>20171120</v>
-      </c>
-      <c r="F14" s="4">
-        <v>20171124</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="4">
-        <v>20171120</v>
-      </c>
-      <c r="F15" s="4">
-        <v>20171124</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="4">
-        <v>20171120</v>
-      </c>
-      <c r="F16" s="4">
-        <v>20171124</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="4">
-        <v>20171120</v>
-      </c>
-      <c r="F17" s="4">
-        <v>20171124</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="7"/>
+      <c r="H17" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="16"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="16"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="16"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="16"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="16"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="16"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="16"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="16"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="16"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="16"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>